--- a/DataAlcohol.xlsx
+++ b/DataAlcohol.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/Hacktiv8/p1/w4/alcoholadvisor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2139D213-F3B5-A34B-B5BA-EFEBDB3897D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695CB306-28C2-F846-A639-341F46D786C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{58D54CBB-552C-5540-A91E-0925423FEB0E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{58D54CBB-552C-5540-A91E-0925423FEB0E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Informasi" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
   <si>
     <t>isAlcohol</t>
   </si>
@@ -120,6 +121,138 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>Membangun sebuah platform yang membantu users untuk menentukan jenis minuman yang harus mereka pilih ketika mereka sedang berkunjung ke bar/lounge/club</t>
+  </si>
+  <si>
+    <t>Masalah User</t>
+  </si>
+  <si>
+    <t>Banyak orang yang masih asing dengan jenis minuman beralcohol yang disediakan oleh bar/lounge/club</t>
+  </si>
+  <si>
+    <t>Banyak orang yang memilih minuman berdasarkan promo yang sedang ada dan belum tentu cocok dengan selera</t>
+  </si>
+  <si>
+    <t>Banyak orang yang memilih minuman berdasarkan preferensi dari waiter/bartender</t>
+  </si>
+  <si>
+    <t>Solusi</t>
+  </si>
+  <si>
+    <t>Memberikan bantuan pilihan minuman berdasarkan selera users yang diinput ketika mereka registrasi</t>
+  </si>
+  <si>
+    <t>Memberikan opsi pilihan yang berbeda bila mereka memiliki perubahan selera</t>
+  </si>
+  <si>
+    <t>Memberikan mereka opsi untuk memilih secara manual minuman yang user suka</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>Association Many to Many</t>
+  </si>
+  <si>
+    <t>Membuat hubungan antara userId dengan drinkId melalui conjunction table userdrink (many to many)</t>
+  </si>
+  <si>
+    <t>Association One to Many</t>
+  </si>
+  <si>
+    <t>Membuat hubungan antara drinkId dengan drinkCategoryId (one to many)</t>
+  </si>
+  <si>
+    <t>Helpers</t>
+  </si>
+  <si>
+    <t>Session and Encryption</t>
+  </si>
+  <si>
+    <t>Melakukan registrasi user baru dan password disimpan dalam bentuk encryption</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Hooks</t>
+  </si>
+  <si>
+    <t>Sebelum registrasi berhasil dilakukan akan dilakukan pengecekan umur (beforeCreate - getAge)</t>
+  </si>
+  <si>
+    <t>Class/ Instance Method</t>
+  </si>
+  <si>
+    <t>Deploy to Heroku</t>
+  </si>
+  <si>
+    <t>Menampilkan registrasi awal</t>
+  </si>
+  <si>
+    <t>Melakukan validasi registrasi berdasarkan umur</t>
+  </si>
+  <si>
+    <t>Bila validasi berhasil, registrasi akan dilanjutkan halaman Profil User Attributes</t>
+  </si>
+  <si>
+    <t>Setelah seluruh User Attributes diisi, tampilkan halaman Rekomendasi Minuman</t>
+  </si>
+  <si>
+    <t>Membuat pilihan untuk melakukan update Rekomendasi Minuman</t>
+  </si>
+  <si>
+    <t>Opsi update 2: memilih minuman sendiri akan mengubah tampilan Rekomendasi Minuman</t>
+  </si>
+  <si>
+    <t>Opsi update 1: mengubah user attributes akan mengubah tampilan Rekomendasi Minuman</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Menghapus semua rekomendasi minuman</t>
+  </si>
+  <si>
+    <t>Menyimpan function getUserType (Beginner/Expert)</t>
+  </si>
+  <si>
+    <t>Menyimpan function getAge</t>
+  </si>
+  <si>
+    <t>Menampilkan halaman Homepage dengan Pilihan Semua Minuman di database (findAll Drink)</t>
+  </si>
+  <si>
+    <t>termasuk dalam pembuatan CRUD</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Partials</t>
+  </si>
+  <si>
+    <t>Membuat header dan disimpan dalam partial</t>
+  </si>
+  <si>
+    <t>Additional:</t>
   </si>
 </sst>
 </file>
@@ -143,15 +276,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,13 +298,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DC7CA6-3CE6-2D4B-8B31-7DAB8FAC6D26}">
   <dimension ref="C5:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -817,4 +969,230 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14315CF0-E3E3-D040-BF23-E729ABF403C2}">
+  <dimension ref="B4:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="27.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="95.1640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataAlcohol.xlsx
+++ b/DataAlcohol.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/Hacktiv8/p1/w4/alcoholadvisor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695CB306-28C2-F846-A639-341F46D786C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7060C2-287C-7143-98E3-6DA0FF4C356A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{58D54CBB-552C-5540-A91E-0925423FEB0E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="23840" windowHeight="16340" activeTab="1" xr2:uid="{58D54CBB-552C-5540-A91E-0925423FEB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Informasi" sheetId="2" r:id="rId2"/>
+    <sheet name="Table" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$5:$F$43</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="117">
   <si>
     <t>isAlcohol</t>
   </si>
@@ -81,9 +85,6 @@
     <t>San Miguel</t>
   </si>
   <si>
-    <t>Chivas</t>
-  </si>
-  <si>
     <t>Jack Daniel's</t>
   </si>
   <si>
@@ -253,6 +254,138 @@
   </si>
   <si>
     <t>Additional:</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>drinkBody</t>
+  </si>
+  <si>
+    <t>afterTaste</t>
+  </si>
+  <si>
+    <t>Bintang Radler</t>
+  </si>
+  <si>
+    <t>Carslberg</t>
+  </si>
+  <si>
+    <t>Erdinger</t>
+  </si>
+  <si>
+    <t>Heineken Light</t>
+  </si>
+  <si>
+    <t>Bali Hai</t>
+  </si>
+  <si>
+    <t>Anker</t>
+  </si>
+  <si>
+    <t>Singha</t>
+  </si>
+  <si>
+    <t>Paulaner</t>
+  </si>
+  <si>
+    <t>Duvel</t>
+  </si>
+  <si>
+    <t>Glenlivet 15YO</t>
+  </si>
+  <si>
+    <t>Glenlivet 18YO</t>
+  </si>
+  <si>
+    <t>JohnnieWalker Gold Label</t>
+  </si>
+  <si>
+    <t>Yamazaki 12YO</t>
+  </si>
+  <si>
+    <t>Chivas Regal</t>
+  </si>
+  <si>
+    <t>Hibiki 12YO</t>
+  </si>
+  <si>
+    <t>Hibiki 17YO</t>
+  </si>
+  <si>
+    <t>Chita Suntory 12YO</t>
+  </si>
+  <si>
+    <t>Gilbeys Whiskey</t>
+  </si>
+  <si>
+    <t>Chivas Regal Extra</t>
+  </si>
+  <si>
+    <t>Jim Bean</t>
+  </si>
+  <si>
+    <t>Nikka Whiskey 12YO</t>
+  </si>
+  <si>
+    <t>UserAlcohol</t>
+  </si>
+  <si>
+    <t>idUser</t>
+  </si>
+  <si>
+    <t>idAlcohol</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>afterBody</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Alcohol Category</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Buat seluruh table dengan sequelize dan migrate</t>
+  </si>
+  <si>
+    <t>Seed table alcohol dan category</t>
+  </si>
+  <si>
+    <t>Buat repo dan branch</t>
   </si>
 </sst>
 </file>
@@ -632,351 +765,694 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DC7CA6-3CE6-2D4B-8B31-7DAB8FAC6D26}">
-  <dimension ref="C5:G23"/>
+  <dimension ref="B5:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
         <v>17</v>
       </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
         <v>19</v>
       </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
         <v>23</v>
       </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B5:F43" xr:uid="{8B5DA0FC-B421-C342-861F-0A396782B631}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14315CF0-E3E3-D040-BF23-E729ABF403C2}">
-  <dimension ref="B4:E35"/>
+  <dimension ref="B4:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,46 +1466,46 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -1040,156 +1516,313 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>72</v>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5270B0C3-418F-C54D-A9D2-4B837D33421C}">
+  <dimension ref="B5:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/DataAlcohol.xlsx
+++ b/DataAlcohol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/Hacktiv8/p1/w4/alcoholadvisor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7060C2-287C-7143-98E3-6DA0FF4C356A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5AF0DD-8B7A-7049-A200-29AE39ABCFFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="23840" windowHeight="16340" activeTab="1" xr2:uid="{58D54CBB-552C-5540-A91E-0925423FEB0E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="23840" windowHeight="16340" activeTab="2" xr2:uid="{58D54CBB-552C-5540-A91E-0925423FEB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="118">
   <si>
     <t>isAlcohol</t>
   </si>
@@ -370,9 +370,6 @@
     <t>afterBody</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>Alcohol Category</t>
   </si>
   <si>
@@ -386,6 +383,12 @@
   </si>
   <si>
     <t>Buat repo dan branch</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>CONJUNCTION TABLE</t>
   </si>
 </sst>
 </file>
@@ -466,6 +469,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533F14B3-F1AC-1B4E-B830-9774C55667DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6654800" y="1905000"/>
+          <a:ext cx="901700" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1451,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14315CF0-E3E3-D040-BF23-E729ABF403C2}">
   <dimension ref="B4:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -1670,35 +1731,35 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="2">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1708,124 +1769,152 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5270B0C3-418F-C54D-A9D2-4B837D33421C}">
-  <dimension ref="B5:K20"/>
+  <dimension ref="B5:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="4.33203125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+      <c r="L9" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E16" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="2" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataAlcohol.xlsx
+++ b/DataAlcohol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/Hacktiv8/p1/w4/alcoholadvisor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5AF0DD-8B7A-7049-A200-29AE39ABCFFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33D3DFF-45B8-564F-91C6-43D44FA2BE45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="23840" windowHeight="16340" activeTab="2" xr2:uid="{58D54CBB-552C-5540-A91E-0925423FEB0E}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="23840" windowHeight="16300" activeTab="1" xr2:uid="{58D54CBB-552C-5540-A91E-0925423FEB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="171">
   <si>
     <t>isAlcohol</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Middleware</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Hooks</t>
   </si>
   <si>
@@ -265,21 +262,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
     <t>drinkBody</t>
   </si>
   <si>
@@ -352,50 +334,227 @@
     <t>UserAlcohol</t>
   </si>
   <si>
-    <t>idUser</t>
-  </si>
-  <si>
-    <t>idAlcohol</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>body</t>
   </si>
   <si>
-    <t>afterBody</t>
-  </si>
-  <si>
     <t>Alcohol Category</t>
   </si>
   <si>
     <t>Release</t>
   </si>
   <si>
-    <t>Buat seluruh table dengan sequelize dan migrate</t>
-  </si>
-  <si>
     <t>Seed table alcohol dan category</t>
   </si>
   <si>
-    <t>Buat repo dan branch</t>
-  </si>
-  <si>
-    <t>categoryId</t>
-  </si>
-  <si>
     <t>CONJUNCTION TABLE</t>
+  </si>
+  <si>
+    <t>Buat ROUTES JS dan VIEWS EJS untuk register new users</t>
+  </si>
+  <si>
+    <t>Buat Hooks BeforeCreate untuk Validasi Umur</t>
+  </si>
+  <si>
+    <t>Buat ROUTES JS dan VIEWS EJS untuk memasukkan attributes selera users (gunakan save)</t>
+  </si>
+  <si>
+    <t>Buat ROUTES JS dan VIEWS EJS untuk menampilkan rekomendasi alcohol berdasarkan input selera users</t>
+  </si>
+  <si>
+    <t>Melakukan associations many to many dari users ke alcohol (supaya keluar hasil rekomendasi)</t>
+  </si>
+  <si>
+    <t>Melakukan associations one to many dari alcohol ke category (supaya keluar category alcohol)</t>
+  </si>
+  <si>
+    <t>Buat ROUTES JS dan VIEWS EJS untuk update selera customer untuk menampilkan rekomendasi BARU alcohol berdasarkan input selera users yang BARU</t>
+  </si>
+  <si>
+    <t>Buat ROUTES JS dan VIEWS EJS untuk update pilihan manual alcohol untuk menampilkan rekomendasi BARU alcohol berdasarkan input selera users yang BARU</t>
+  </si>
+  <si>
+    <t>user.js</t>
+  </si>
+  <si>
+    <t>alcohol.js</t>
+  </si>
+  <si>
+    <t>alcohol.ejs</t>
+  </si>
+  <si>
+    <t>useraddaattributes.ejs</t>
+  </si>
+  <si>
+    <t>useradd.ejs</t>
+  </si>
+  <si>
+    <t>usereditaattributes.ejs</t>
+  </si>
+  <si>
+    <t>alcoholedititem.ejs</t>
+  </si>
+  <si>
+    <t>Dalam Folder 'views'</t>
+  </si>
+  <si>
+    <t>Dalam Folder 'routes'</t>
+  </si>
+  <si>
+    <t>Dalam Folder Lain</t>
+  </si>
+  <si>
+    <t>models/user.js</t>
+  </si>
+  <si>
+    <t>Hapus seluruh minuman</t>
+  </si>
+  <si>
+    <t>Buat function getAge</t>
+  </si>
+  <si>
+    <t>helpers/getage.js</t>
+  </si>
+  <si>
+    <t>views/partials/navbar.js</t>
+  </si>
+  <si>
+    <t>home.js</t>
+  </si>
+  <si>
+    <t>home.ejs</t>
+  </si>
+  <si>
+    <t>app.js</t>
+  </si>
+  <si>
+    <t>Buat encryption password dengan bcrypt dalam app.js (dan validasi dengan compareSync)</t>
+  </si>
+  <si>
+    <t>seeders/</t>
+  </si>
+  <si>
+    <t>models/</t>
+  </si>
+  <si>
+    <t>Buat Session dan Middleware untuk halaman rekomendasi alcohol hanya bisa diakses jika user login</t>
+  </si>
+  <si>
+    <t>users/add</t>
+  </si>
+  <si>
+    <t>users/add/:id/editattributes</t>
+  </si>
+  <si>
+    <t>alcohols/:id/result?isalcohol=true,body=medium,taste=medium</t>
+  </si>
+  <si>
+    <t>alcohols/:id/result</t>
+  </si>
+  <si>
+    <t>userunderage.ejs</t>
+  </si>
+  <si>
+    <t>users/underage</t>
+  </si>
+  <si>
+    <t>Buat ROUTES JS dan VIEWS EJS untuk menampilkan users tidak bisa masuk karena umur kurang dari 21</t>
+  </si>
+  <si>
+    <t>Buat ROUTES JS dan VIEWS EJS untuk register new users dan tunjukkan list seluruh alcohol yang menjadi referensi</t>
+  </si>
+  <si>
+    <t>Percantik style dari homepage, users, dan alcohol result</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>taste</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>AlcoholId</t>
+  </si>
+  <si>
+    <t>CategoryId</t>
+  </si>
+  <si>
+    <t>alcoholName</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>Nama Link =&gt; Localhost:3000</t>
+  </si>
+  <si>
+    <t>Buat app.js, port: 3000</t>
+  </si>
+  <si>
+    <t>localhost:3000/</t>
+  </si>
+  <si>
+    <t>Buat seluruh table dengan sequelize dan migrate untuk users</t>
+  </si>
+  <si>
+    <t>Buat repo dan branch untuk pair project</t>
+  </si>
+  <si>
+    <t>Buat seluruh table dengan sequelize dan migrate untuk alcohol, conjunction dan alcoholCategory</t>
+  </si>
+  <si>
+    <t>migrations/</t>
+  </si>
+  <si>
+    <t>Rudy</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>PERSON IN CHARGE</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DESKRIPSI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -407,6 +566,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,18 +618,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -829,7 +1016,7 @@
   <dimension ref="B5:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -1031,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -1048,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -1065,7 +1252,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1082,7 +1269,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -1099,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -1116,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -1133,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -1150,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -1167,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1184,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -1252,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -1269,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
@@ -1371,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -1388,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
@@ -1405,7 +1592,7 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
@@ -1422,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
@@ -1439,7 +1626,7 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -1456,7 +1643,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -1473,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
@@ -1490,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
@@ -1510,259 +1697,669 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14315CF0-E3E3-D040-BF23-E729ABF403C2}">
-  <dimension ref="B4:E42"/>
+  <dimension ref="A4:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="9"/>
     <col min="2" max="2" width="27.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="95.1640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="9" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="132" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="H29" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+      <c r="H31" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
+    </row>
+    <row r="39" spans="1:8" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="9">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="9">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="9">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="9">
+        <v>5</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="9">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="9">
+        <v>7</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="9">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="9">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="9">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="9">
+        <v>11</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="9">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="9">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="9">
+        <v>14</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="2">
-        <v>2</v>
-      </c>
-      <c r="D42" s="2" t="s">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="9">
+        <v>15</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="E55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="9">
+        <v>16</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="9">
+        <v>17</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="9">
+        <v>18</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="9">
+        <v>19</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="9">
+        <v>20</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D45" r:id="rId1" xr:uid="{5155A552-09BF-194F-98D2-9BEEB33F24CD}"/>
+    <hyperlink ref="E45" r:id="rId2" xr:uid="{ADB79C0B-D078-B743-9894-40302A58EED5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1771,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5270B0C3-418F-C54D-A9D2-4B837D33421C}">
   <dimension ref="B5:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1791,7 +2388,7 @@
   <sheetData>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>3</v>
@@ -1799,118 +2396,123 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="H6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E16" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F17" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E19" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E20" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
